--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H2">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03790166666666667</v>
+        <v>0.2670933333333333</v>
       </c>
       <c r="N2">
-        <v>0.113705</v>
+        <v>0.80128</v>
       </c>
       <c r="O2">
-        <v>0.2038567937622923</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="P2">
-        <v>0.2038567937622923</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="Q2">
-        <v>0.9062742688305555</v>
+        <v>6.131212313315556</v>
       </c>
       <c r="R2">
-        <v>8.156468419474999</v>
+        <v>55.18091081984</v>
       </c>
       <c r="S2">
-        <v>0.04035059385720957</v>
+        <v>0.07821866674034329</v>
       </c>
       <c r="T2">
-        <v>0.04035059385720958</v>
+        <v>0.07821866674034329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H3">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.000363</v>
+        <v>0.3202423333333334</v>
       </c>
       <c r="N3">
-        <v>0.001089</v>
+        <v>0.960727</v>
       </c>
       <c r="O3">
-        <v>0.001952421163599985</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="P3">
-        <v>0.001952421163599985</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="Q3">
-        <v>0.008679764995</v>
+        <v>7.351264491981223</v>
       </c>
       <c r="R3">
-        <v>0.07811788495500001</v>
+        <v>66.16138042783101</v>
       </c>
       <c r="S3">
-        <v>0.0003864543925992808</v>
+        <v>0.09378342781730455</v>
       </c>
       <c r="T3">
-        <v>0.0003864543925992809</v>
+        <v>0.09378342781730455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.91119833333333</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H4">
-        <v>71.73359499999999</v>
+        <v>186.642341</v>
       </c>
       <c r="I4">
-        <v>0.1979359780585016</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J4">
-        <v>0.1979359780585016</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1476583333333333</v>
+        <v>0.2670933333333333</v>
       </c>
       <c r="N4">
-        <v>0.442975</v>
+        <v>0.80128</v>
       </c>
       <c r="O4">
-        <v>0.7941907850741078</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="P4">
-        <v>0.7941907850741078</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="Q4">
-        <v>3.530687693902777</v>
+        <v>16.61697499960889</v>
       </c>
       <c r="R4">
-        <v>31.776189245125</v>
+        <v>149.55277499648</v>
       </c>
       <c r="S4">
-        <v>0.1571989298086928</v>
+        <v>0.2119903150155565</v>
       </c>
       <c r="T4">
-        <v>0.1571989298086928</v>
+        <v>0.2119903150155565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>186.642341</v>
       </c>
       <c r="I5">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J5">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03790166666666667</v>
+        <v>0.3202423333333334</v>
       </c>
       <c r="N5">
-        <v>0.113705</v>
+        <v>0.960727</v>
       </c>
       <c r="O5">
-        <v>0.2038567937622923</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="P5">
-        <v>0.2038567937622923</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="Q5">
-        <v>2.358018598156111</v>
+        <v>19.92359292687856</v>
       </c>
       <c r="R5">
-        <v>21.222167383405</v>
+        <v>179.312336341907</v>
       </c>
       <c r="S5">
-        <v>0.1049874789943235</v>
+        <v>0.2541743452650141</v>
       </c>
       <c r="T5">
-        <v>0.1049874789943236</v>
+        <v>0.2541743452650141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.21411366666666</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H6">
-        <v>186.642341</v>
+        <v>23.349133</v>
       </c>
       <c r="I6">
-        <v>0.5150060346614912</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J6">
-        <v>0.5150060346614913</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.000363</v>
+        <v>0.2670933333333333</v>
       </c>
       <c r="N6">
-        <v>0.001089</v>
+        <v>0.80128</v>
       </c>
       <c r="O6">
-        <v>0.001952421163599985</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="P6">
-        <v>0.001952421163599985</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="Q6">
-        <v>0.022583723261</v>
+        <v>2.078799254471111</v>
       </c>
       <c r="R6">
-        <v>0.203253509349</v>
+        <v>18.70919329024</v>
       </c>
       <c r="S6">
-        <v>0.001005508681454803</v>
+        <v>0.02652018847111506</v>
       </c>
       <c r="T6">
-        <v>0.001005508681454803</v>
+        <v>0.02652018847111506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.21411366666666</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H7">
-        <v>186.642341</v>
+        <v>23.349133</v>
       </c>
       <c r="I7">
-        <v>0.5150060346614912</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J7">
-        <v>0.5150060346614913</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1476583333333333</v>
+        <v>0.3202423333333334</v>
       </c>
       <c r="N7">
-        <v>0.442975</v>
+        <v>0.960727</v>
       </c>
       <c r="O7">
-        <v>0.7941907850741078</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="P7">
-        <v>0.7941907850741078</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="Q7">
-        <v>9.186432333830554</v>
+        <v>2.492460277743445</v>
       </c>
       <c r="R7">
-        <v>82.677891004475</v>
+        <v>22.432142499691</v>
       </c>
       <c r="S7">
-        <v>0.4090130469857128</v>
+        <v>0.03179745046586582</v>
       </c>
       <c r="T7">
-        <v>0.4090130469857129</v>
+        <v>0.03179745046586582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.608769666666667</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H8">
-        <v>4.826309</v>
+        <v>91.320494</v>
       </c>
       <c r="I8">
-        <v>0.01331733328473986</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J8">
-        <v>0.01331733328473986</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03790166666666667</v>
+        <v>0.2670933333333333</v>
       </c>
       <c r="N8">
-        <v>0.113705</v>
+        <v>0.80128</v>
       </c>
       <c r="O8">
-        <v>0.2038567937622923</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="P8">
-        <v>0.2038567937622923</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="Q8">
-        <v>0.06097505164944445</v>
+        <v>8.130365048035555</v>
       </c>
       <c r="R8">
-        <v>0.5487754648450001</v>
+        <v>73.17328543232</v>
       </c>
       <c r="S8">
-        <v>0.002714828864890924</v>
+        <v>0.1037227682995909</v>
       </c>
       <c r="T8">
-        <v>0.002714828864890925</v>
+        <v>0.1037227682995909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.608769666666667</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H9">
-        <v>4.826309</v>
+        <v>91.320494</v>
       </c>
       <c r="I9">
-        <v>0.01331733328473986</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J9">
-        <v>0.01331733328473986</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.000363</v>
+        <v>0.3202423333333334</v>
       </c>
       <c r="N9">
-        <v>0.001089</v>
+        <v>0.960727</v>
       </c>
       <c r="O9">
-        <v>0.001952421163599985</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="P9">
-        <v>0.001952421163599985</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="Q9">
-        <v>0.000583983389</v>
+        <v>9.748229359904222</v>
       </c>
       <c r="R9">
-        <v>0.005255850501</v>
+        <v>87.73406423913799</v>
       </c>
       <c r="S9">
-        <v>2.600104334784061E-05</v>
+        <v>0.1243625998654167</v>
       </c>
       <c r="T9">
-        <v>2.600104334784062E-05</v>
+        <v>0.1243625998654167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.608769666666667</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H10">
-        <v>4.826309</v>
+        <v>30.200651</v>
       </c>
       <c r="I10">
-        <v>0.01331733328473986</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J10">
-        <v>0.01331733328473986</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1476583333333333</v>
+        <v>0.2670933333333333</v>
       </c>
       <c r="N10">
-        <v>0.442975</v>
+        <v>0.80128</v>
       </c>
       <c r="O10">
-        <v>0.7941907850741078</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="P10">
-        <v>0.7941907850741078</v>
+        <v>0.4547541525090422</v>
       </c>
       <c r="Q10">
-        <v>0.2375482476972222</v>
+        <v>2.688797514808889</v>
       </c>
       <c r="R10">
-        <v>2.137934229275</v>
+        <v>24.19917763328</v>
       </c>
       <c r="S10">
-        <v>0.0105765033765011</v>
+        <v>0.03430221398243651</v>
       </c>
       <c r="T10">
-        <v>0.0105765033765011</v>
+        <v>0.03430221398243651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,356 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.045992</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H11">
-        <v>78.13797599999999</v>
+        <v>30.200651</v>
       </c>
       <c r="I11">
-        <v>0.2156077177377173</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J11">
-        <v>0.2156077177377173</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03790166666666667</v>
+        <v>0.3202423333333334</v>
       </c>
       <c r="N11">
-        <v>0.113705</v>
+        <v>0.960727</v>
       </c>
       <c r="O11">
-        <v>0.2038567937622923</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="P11">
-        <v>0.2038567937622923</v>
+        <v>0.5452458474909577</v>
       </c>
       <c r="Q11">
-        <v>0.9871865067866666</v>
+        <v>3.223842314808556</v>
       </c>
       <c r="R11">
-        <v>8.884678561079999</v>
+        <v>29.014580833277</v>
       </c>
       <c r="S11">
-        <v>0.04395309804841635</v>
+        <v>0.04112802407735657</v>
       </c>
       <c r="T11">
-        <v>0.04395309804841636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>26.045992</v>
-      </c>
-      <c r="H12">
-        <v>78.13797599999999</v>
-      </c>
-      <c r="I12">
-        <v>0.2156077177377173</v>
-      </c>
-      <c r="J12">
-        <v>0.2156077177377173</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.000363</v>
-      </c>
-      <c r="N12">
-        <v>0.001089</v>
-      </c>
-      <c r="O12">
-        <v>0.001952421163599985</v>
-      </c>
-      <c r="P12">
-        <v>0.001952421163599985</v>
-      </c>
-      <c r="Q12">
-        <v>0.009454695096</v>
-      </c>
-      <c r="R12">
-        <v>0.085092255864</v>
-      </c>
-      <c r="S12">
-        <v>0.0004209570711466111</v>
-      </c>
-      <c r="T12">
-        <v>0.0004209570711466112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>26.045992</v>
-      </c>
-      <c r="H13">
-        <v>78.13797599999999</v>
-      </c>
-      <c r="I13">
-        <v>0.2156077177377173</v>
-      </c>
-      <c r="J13">
-        <v>0.2156077177377173</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1476583333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.442975</v>
-      </c>
-      <c r="O13">
-        <v>0.7941907850741078</v>
-      </c>
-      <c r="P13">
-        <v>0.7941907850741078</v>
-      </c>
-      <c r="Q13">
-        <v>3.845907768733333</v>
-      </c>
-      <c r="R13">
-        <v>34.6131699186</v>
-      </c>
-      <c r="S13">
-        <v>0.1712336626181543</v>
-      </c>
-      <c r="T13">
-        <v>0.1712336626181543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>7.022615000000001</v>
-      </c>
-      <c r="H14">
-        <v>21.067845</v>
-      </c>
-      <c r="I14">
-        <v>0.05813293625755009</v>
-      </c>
-      <c r="J14">
-        <v>0.0581329362575501</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.03790166666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.113705</v>
-      </c>
-      <c r="O14">
-        <v>0.2038567937622923</v>
-      </c>
-      <c r="P14">
-        <v>0.2038567937622923</v>
-      </c>
-      <c r="Q14">
-        <v>0.2661688128583334</v>
-      </c>
-      <c r="R14">
-        <v>2.395519315725</v>
-      </c>
-      <c r="S14">
-        <v>0.01185079399745187</v>
-      </c>
-      <c r="T14">
-        <v>0.01185079399745187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>7.022615000000001</v>
-      </c>
-      <c r="H15">
-        <v>21.067845</v>
-      </c>
-      <c r="I15">
-        <v>0.05813293625755009</v>
-      </c>
-      <c r="J15">
-        <v>0.0581329362575501</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.000363</v>
-      </c>
-      <c r="N15">
-        <v>0.001089</v>
-      </c>
-      <c r="O15">
-        <v>0.001952421163599985</v>
-      </c>
-      <c r="P15">
-        <v>0.001952421163599985</v>
-      </c>
-      <c r="Q15">
-        <v>0.002549209245000001</v>
-      </c>
-      <c r="R15">
-        <v>0.022942883205</v>
-      </c>
-      <c r="S15">
-        <v>0.0001134999750514497</v>
-      </c>
-      <c r="T15">
-        <v>0.0001134999750514497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.022615000000001</v>
-      </c>
-      <c r="H16">
-        <v>21.067845</v>
-      </c>
-      <c r="I16">
-        <v>0.05813293625755009</v>
-      </c>
-      <c r="J16">
-        <v>0.0581329362575501</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1476583333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.442975</v>
-      </c>
-      <c r="O16">
-        <v>0.7941907850741078</v>
-      </c>
-      <c r="P16">
-        <v>0.7941907850741078</v>
-      </c>
-      <c r="Q16">
-        <v>1.036947626541667</v>
-      </c>
-      <c r="R16">
-        <v>9.332528638875001</v>
-      </c>
-      <c r="S16">
-        <v>0.04616864228504677</v>
-      </c>
-      <c r="T16">
-        <v>0.04616864228504677</v>
+        <v>0.04112802407735657</v>
       </c>
     </row>
   </sheetData>
